--- a/Test Components/Application Locators.xlsx
+++ b/Test Components/Application Locators.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Automation\Test Automation Framework\Test Components\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mounisha.m\git\POMFramework\POM\Test Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A254B6-E2C1-41C3-8492-EB66BDAC7504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7A67B1-3F93-4E2B-8BDB-2BE054CEBCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E66D6498-F412-4355-9735-CDD5F747A849}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
   <si>
     <t>Key</t>
   </si>
@@ -43,100 +43,181 @@
     <t>Value</t>
   </si>
   <si>
-    <t>FormsBasedLogin</t>
-  </si>
-  <si>
-    <t>//input[@value = 'Forms Based Login']</t>
-  </si>
-  <si>
     <t>UserName</t>
   </si>
   <si>
-    <t>//input[@name = 'Fbauserlogin$ctl00$txtUserName']</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
-    <t>//input[@name = 'Fbauserlogin$ctl00$txtPassword']</t>
-  </si>
-  <si>
     <t>LoginButton</t>
   </si>
   <si>
-    <t>//input[@name = 'Fbauserlogin$ctl00$btnlogin']</t>
-  </si>
-  <si>
-    <t>Wardapps</t>
-  </si>
-  <si>
-    <t>//*[text()='WARD APPS']</t>
-  </si>
-  <si>
-    <t>//*[text()='ForkLift / Trailer damage']</t>
-  </si>
-  <si>
-    <t>ForkLiftTrailerDamage</t>
-  </si>
-  <si>
-    <t>//*[text()='Create New Report']</t>
-  </si>
-  <si>
-    <t>CreateNewReport</t>
-  </si>
-  <si>
-    <t>//select[@id = 'serviceCenter']</t>
-  </si>
-  <si>
-    <t>serviceCenter</t>
-  </si>
-  <si>
-    <t>//input[@placeholder = 'Supervisor']</t>
-  </si>
-  <si>
-    <t>Supervisor</t>
-  </si>
-  <si>
-    <t>SupervisorName</t>
-  </si>
-  <si>
-    <t>SubmitButton</t>
-  </si>
-  <si>
-    <t>//*[text()='Submit']</t>
-  </si>
-  <si>
-    <t>ForkliftTrailerDamageGrid</t>
-  </si>
-  <si>
-    <t>//h2[text() = 'ForkLift / Trailer Damage']</t>
-  </si>
-  <si>
-    <t>Attachment</t>
-  </si>
-  <si>
-    <t>//*[text()='Choose file']</t>
-  </si>
-  <si>
-    <t>//*[@id="rbt-menu-item-0"]/a/span/mark</t>
-  </si>
-  <si>
-    <t>LogoutMenu</t>
-  </si>
-  <si>
-    <t>//span[@class = 'o365cs-me-tile-nophoto-username o365cs-me-bidi']</t>
-  </si>
-  <si>
     <t>Logout</t>
   </si>
   <si>
-    <t>//a[@aria-label = 'Sign Out']</t>
-  </si>
-  <si>
-    <t>SupervisorValidation</t>
-  </si>
-  <si>
-    <t>//*[@id="WebPartWPQ2"]/div[1]/div/div/div[2]/div[2]/label[2]</t>
+    <t>//input[@name = 'userName']</t>
+  </si>
+  <si>
+    <t>//input[@name = 'password']</t>
+  </si>
+  <si>
+    <t>//*[text()='Login']</t>
+  </si>
+  <si>
+    <t>//*[@id="hamburger-canvas"]/div[4]/a</t>
+  </si>
+  <si>
+    <t>//button[@id='hamburgermenu']</t>
+  </si>
+  <si>
+    <t>MyFavIOrderMenu</t>
+  </si>
+  <si>
+    <t>//a[@id= 'idmyfavorder']</t>
+  </si>
+  <si>
+    <t>OrderNumber</t>
+  </si>
+  <si>
+    <t>(//div[@class='popover-item-description'])[position()=1]</t>
+  </si>
+  <si>
+    <t>Item1</t>
+  </si>
+  <si>
+    <t>(//span[@class='ml-3'])[1]</t>
+  </si>
+  <si>
+    <t>(//div[@class='popover-item-description'])[position()=2]</t>
+  </si>
+  <si>
+    <t>Item2</t>
+  </si>
+  <si>
+    <t>SelectAll</t>
+  </si>
+  <si>
+    <t>(//button[text()='Select All'])[1]</t>
+  </si>
+  <si>
+    <t>Addtocart</t>
+  </si>
+  <si>
+    <t>(//button[text()='Add to Cart'])[1]</t>
+  </si>
+  <si>
+    <t>RequestorApproval</t>
+  </si>
+  <si>
+    <t>HamburgerMenu</t>
+  </si>
+  <si>
+    <t>//input[@placeholder='Search Panel']</t>
+  </si>
+  <si>
+    <t>//span[@class = 'shopping-search-icon']</t>
+  </si>
+  <si>
+    <t>//a[@id= 'Orderingid']</t>
+  </si>
+  <si>
+    <t>//a[@id= 'Order statusid']</t>
+  </si>
+  <si>
+    <t>//a[@id='Order Status Reportid']</t>
+  </si>
+  <si>
+    <t>AppTitle</t>
+  </si>
+  <si>
+    <t>//span[text()='Walmart']</t>
+  </si>
+  <si>
+    <t>//a[@id='idOrderStatus']</t>
+  </si>
+  <si>
+    <t>OrderStatusMenu</t>
+  </si>
+  <si>
+    <t>MyFavItemMenu</t>
+  </si>
+  <si>
+    <t>OrderApprovalMenu</t>
+  </si>
+  <si>
+    <t>//a[@id= 'idfavitem']</t>
+  </si>
+  <si>
+    <t>//a[@id= 'idrequestorapproval']</t>
+  </si>
+  <si>
+    <t>//a[@id= 'idorderapproval']</t>
+  </si>
+  <si>
+    <t>AppLogo</t>
+  </si>
+  <si>
+    <t>//img[@alt= 'SDI Logo']</t>
+  </si>
+  <si>
+    <t>Home_Search</t>
+  </si>
+  <si>
+    <t>Home_SearchIcon</t>
+  </si>
+  <si>
+    <t>(//input[@placeholder= 'Search'])[4]</t>
+  </si>
+  <si>
+    <t>//img[@alt= 'search-icon']</t>
+  </si>
+  <si>
+    <t>Module Name</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>HomePage</t>
+  </si>
+  <si>
+    <t>HPSearch</t>
+  </si>
+  <si>
+    <t>HPSearchIcon</t>
+  </si>
+  <si>
+    <t>HPOrdering</t>
+  </si>
+  <si>
+    <t>HPOrdering-OrderStatus</t>
+  </si>
+  <si>
+    <t>HPOrdering-OrderStatus-OSR</t>
+  </si>
+  <si>
+    <t>Maps</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>//input[@class='tactile-searchbox-input']</t>
+  </si>
+  <si>
+    <t>//img[@src='//www.gstatic.com/images/icons/material/system_gm/2x/menu_black_24dp.png']</t>
+  </si>
+  <si>
+    <t>HB</t>
+  </si>
+  <si>
+    <t>Guru99</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>//img[@alt='Guru99']</t>
   </si>
 </sst>
 </file>
@@ -488,152 +569,325 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F964B03-D15D-4FE2-B77C-DD051ECCB2B7}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="136.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C28" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Test Components/Application Locators.xlsx
+++ b/Test Components/Application Locators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mounisha.m\git\POMFramework\POM\Test Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7A67B1-3F93-4E2B-8BDB-2BE054CEBCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40682BE-6B7C-4956-B4B3-A587C92257E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E66D6498-F412-4355-9735-CDD5F747A849}"/>
   </bookViews>
@@ -217,7 +217,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>//img[@alt='Guru99']</t>
+    <t>//img[@alt='Guru99'</t>
   </si>
 </sst>
 </file>

--- a/Test Components/Application Locators.xlsx
+++ b/Test Components/Application Locators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mounisha.m\git\POMFramework\POM\Test Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40682BE-6B7C-4956-B4B3-A587C92257E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097576E0-D8EB-43B9-909D-CD9B60F38CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E66D6498-F412-4355-9735-CDD5F747A849}"/>
   </bookViews>
